--- a/output/250901_all_costs.xlsx
+++ b/output/250901_all_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ischillebeeckx/Development/solar/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F34C73-B33A-E841-886E-17B63AE816AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D2CE2-6F0C-A64A-9C45-2B57BFFD617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="3120" windowWidth="30000" windowHeight="17440" xr2:uid="{26FF52C5-725B-6344-B119-F4C9063B9FBA}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>savings at year</t>
   </si>
   <si>
-    <t>car charge</t>
+    <t>period return</t>
   </si>
   <si>
-    <t>period return</t>
+    <t>Jan-Aug</t>
   </si>
 </sst>
 </file>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F96193-E8D3-004D-AB57-E6723CF263D7}">
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
         <v>6</v>
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>201.022448542532</v>
+        <v>574.32255674356804</v>
       </c>
       <c r="C13">
-        <v>121.982415964076</v>
+        <v>404.177435744793</v>
       </c>
       <c r="D13">
-        <v>62.981046197672697</v>
+        <v>277.42470653462601</v>
       </c>
       <c r="E13">
-        <v>0.605406871892469</v>
+        <v>159.856876389576</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1925,64 +1925,68 @@
       </c>
       <c r="L13" s="6">
         <f>($B$35-B13)/G13</f>
-        <v>0.11647846263650219</v>
+        <v>9.5900192566711617E-2</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" ref="M13:M20" si="7">($B$35-C13)/H13</f>
-        <v>0.11032072191227378</v>
+        <v>9.6118300121050201E-2</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" ref="N13:O20" si="8">($B$35-D13)/I13</f>
-        <v>0.10506211979138635</v>
+        <v>9.505336109445589E-2</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="8"/>
-        <v>9.9170275131416047E-2</v>
+        <v>9.2343505459668823E-2</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>LN(1+(G13*$B$36/($B$35-B13)))/LN(1+$B$36)</f>
-        <v>7.1488783822064237</v>
+        <v>8.3641071695941225</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" ref="R13:R20" si="9">LN(1+(H13*$B$36/($B$35-C13)))/LN(1+$B$36)</f>
-        <v>7.4732211794906629</v>
+        <v>8.3490234704897119</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" ref="S13:S20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
-        <v>7.7748421296984462</v>
+        <f t="shared" ref="S13:T20" si="10">LN(1+(I13*$B$36/($B$35-D13)))/LN(1+$B$36)</f>
+        <v>8.4232019576500612</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="10"/>
+        <v>8.6181625955162655</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="5" cm="1">
         <f t="array" ref="V13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G13</f>
-        <v>30668.12389466686</v>
+        <v>22045.09589872104</v>
       </c>
       <c r="W13" s="5" cm="1">
         <f t="array" ref="W13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H13</f>
-        <v>30764.905347045795</v>
+        <v>24246.354983874866</v>
       </c>
       <c r="X13" s="5" cm="1">
         <f t="array" ref="X13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I13</f>
-        <v>30571.704666166414</v>
+        <v>25618.173590191458</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="5" cm="1">
         <f t="array" ref="AA13">SUMPRODUCT(($B$35-B13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G13</f>
-        <v>96167.468211177635</v>
+        <v>75972.659765607605</v>
       </c>
       <c r="AB13" s="5" cm="1">
         <f t="array" ref="AB13">SUMPRODUCT(($B$35-C13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H13</f>
-        <v>98714.379957214231</v>
+        <v>83448.179268902677</v>
       </c>
       <c r="AC13" s="5" cm="1">
         <f t="array" ref="AC13">SUMPRODUCT(($B$35-D13) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I13</f>
-        <v>100350.13909221636</v>
+        <v>88749.154930327408</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -1990,16 +1994,16 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>157.68264638498599</v>
+        <v>504.50064555351202</v>
       </c>
       <c r="C14">
-        <v>85.330921790224195</v>
+        <v>334.21948787677002</v>
       </c>
       <c r="D14">
-        <v>33.5671061618674</v>
+        <v>214.122429169729</v>
       </c>
       <c r="E14">
-        <v>-21.206269581436</v>
+        <v>100.584691840096</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -2025,64 +2029,68 @@
       </c>
       <c r="L14" s="6">
         <f t="shared" ref="L14:L20" si="12">($B$35-B14)/G14</f>
-        <v>0.11886758102670895</v>
+        <v>9.9749144425263253E-2</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="7"/>
-        <v>0.11216533270639803</v>
+        <v>9.9639171198229945E-2</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="8"/>
-        <v>0.10643496069366239</v>
+        <v>9.8007877064365576E-2</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="8"/>
-        <v>0.10010529502010231</v>
+        <v>9.488437715828546E-2</v>
       </c>
       <c r="P14">
         <v>10</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14:Q20" si="13">LN(1+(G14*$B$36/($B$35-B14)))/LN(1+$B$36)</f>
-        <v>7.0305934444650111</v>
+        <v>8.1058217141622659</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="9"/>
-        <v>7.3729697071619515</v>
+        <v>8.1129759599079136</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" si="10"/>
-        <v>7.6937377652956327</v>
+        <v>8.2206293096147061</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="10"/>
+        <v>8.4350962581903861</v>
       </c>
       <c r="U14">
         <v>10</v>
       </c>
       <c r="V14" s="5" cm="1">
         <f t="array" ref="V14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G14</f>
-        <v>31669.249581836528</v>
+        <v>23657.943796954314</v>
       </c>
       <c r="W14" s="5" cm="1">
         <f t="array" ref="W14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H14</f>
-        <v>31611.534783821</v>
+        <v>25862.345254844753</v>
       </c>
       <c r="X14" s="5" cm="1">
         <f t="array" ref="X14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I14</f>
-        <v>31251.150567272955</v>
+        <v>27080.421518688359</v>
       </c>
       <c r="Z14">
         <v>10</v>
       </c>
       <c r="AA14" s="5" cm="1">
         <f t="array" ref="AA14">SUMPRODUCT(($B$35-B14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G14</f>
-        <v>98512.06705648308</v>
+        <v>79749.889106852323</v>
       </c>
       <c r="AB14" s="5" cm="1">
         <f t="array" ref="AB14">SUMPRODUCT(($B$35-C14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H14</f>
-        <v>100697.15437335838</v>
+        <v>87232.767929345981</v>
       </c>
       <c r="AC14" s="5" cm="1">
         <f t="array" ref="AC14">SUMPRODUCT(($B$35-D14) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I14</f>
-        <v>101941.37593250326</v>
+        <v>92173.684785711142</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -2090,16 +2098,16 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>134.31681889793299</v>
+        <v>467.54359327847902</v>
       </c>
       <c r="C15">
-        <v>71.065331115456502</v>
+        <v>296.21561062771298</v>
       </c>
       <c r="D15">
-        <v>22.188682014190402</v>
+        <v>180.466363504339</v>
       </c>
       <c r="E15">
-        <v>-29.476967365342801</v>
+        <v>71.071249585511396</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -2125,64 +2133,68 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="12"/>
-        <v>0.12015562862666779</v>
+        <v>0.10178641199093305</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="7"/>
-        <v>0.11288329695687076</v>
+        <v>0.10155184525892887</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="8"/>
-        <v>0.1069660274618125</v>
+        <v>9.9578711284428967E-2</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="8"/>
-        <v>0.10045984213333375</v>
+        <v>9.6149555263722597E-2</v>
       </c>
       <c r="P15">
         <v>20</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="13"/>
-        <v>6.9684533761602552</v>
+        <v>7.975572640066142</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="9"/>
-        <v>7.3346835950043321</v>
+        <v>7.9903519008621533</v>
       </c>
       <c r="S15" s="4">
         <f t="shared" si="10"/>
-        <v>7.6628228414273289</v>
+        <v>8.1169146245479453</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="10"/>
+        <v>8.3468664937472994</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
       <c r="V15" s="5" cm="1">
         <f t="array" ref="V15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G15</f>
-        <v>32208.987396380086</v>
+        <v>24511.631458474141</v>
       </c>
       <c r="W15" s="5" cm="1">
         <f t="array" ref="W15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H15</f>
-        <v>31941.062113346925</v>
+        <v>26740.213999786625</v>
       </c>
       <c r="X15" s="5" cm="1">
         <f t="array" ref="X15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I15</f>
-        <v>31513.985931687916</v>
+        <v>27857.858197891655</v>
       </c>
       <c r="Z15">
         <v>20</v>
       </c>
       <c r="AA15" s="5" cm="1">
         <f t="array" ref="AA15">SUMPRODUCT(($B$35-B15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G15</f>
-        <v>99776.112793161927</v>
+        <v>81749.19362086356</v>
       </c>
       <c r="AB15" s="5" cm="1">
         <f t="array" ref="AB15">SUMPRODUCT(($B$35-C15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H15</f>
-        <v>101468.89503110471</v>
+        <v>89288.703634621343</v>
       </c>
       <c r="AC15" s="5" cm="1">
         <f t="array" ref="AC15">SUMPRODUCT(($B$35-D15) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I15</f>
-        <v>102556.92650703198</v>
+        <v>93994.41235640354</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -2190,16 +2202,16 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>127.193782010362</v>
+        <v>455.72397937719097</v>
       </c>
       <c r="C16">
-        <v>68.014135512136804</v>
+        <v>281.28166522254202</v>
       </c>
       <c r="D16">
-        <v>21.932578120898899</v>
+        <v>168.600518583629</v>
       </c>
       <c r="E16">
-        <v>-31.586307640000101</v>
+        <v>62.316165329664102</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -2225,64 +2237,68 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="12"/>
-        <v>0.12054828797385066</v>
+        <v>0.10243797142431625</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="7"/>
-        <v>0.11303685872759069</v>
+        <v>0.10230344672877818</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="8"/>
-        <v>0.10697798063433935</v>
+        <v>0.10013252750991203</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="8"/>
-        <v>0.10055026503654486</v>
+        <v>9.6524866988332916E-2</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="13"/>
-        <v>6.9497308297115516</v>
+        <v>7.9348103592745973</v>
       </c>
       <c r="R16" s="4">
         <f t="shared" si="9"/>
-        <v>7.3265470865785742</v>
+        <v>7.9431916165046532</v>
       </c>
       <c r="S16" s="4">
         <f t="shared" si="10"/>
-        <v>7.662129917333786</v>
+        <v>8.0809810617361713</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="10"/>
+        <v>8.3210539322823571</v>
       </c>
       <c r="U16">
         <v>30</v>
       </c>
       <c r="V16" s="5" cm="1">
         <f t="array" ref="V16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G16</f>
-        <v>32373.525646298294</v>
+        <v>24784.658064502313</v>
       </c>
       <c r="W16" s="5" cm="1">
         <f t="array" ref="W16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H16</f>
-        <v>32011.543060259391</v>
+        <v>27085.179957442779</v>
       </c>
       <c r="X16" s="5" cm="1">
         <f t="array" ref="X16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I16</f>
-        <v>31519.901791322576</v>
+        <v>28131.952715141939</v>
       </c>
       <c r="Z16">
         <v>30</v>
       </c>
       <c r="AA16" s="5" cm="1">
         <f t="array" ref="AA16">SUMPRODUCT(($B$35-B16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G16</f>
-        <v>100161.45520891543</v>
+        <v>82388.611701365589</v>
       </c>
       <c r="AB16" s="5" cm="1">
         <f t="array" ref="AB16">SUMPRODUCT(($B$35-C16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H16</f>
-        <v>101633.95876772121</v>
+        <v>90096.600980934483</v>
       </c>
       <c r="AC16" s="5" cm="1">
         <f t="array" ref="AC16">SUMPRODUCT(($B$35-D16) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I16</f>
-        <v>102570.78122861809</v>
+        <v>94636.331444971118</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -2290,16 +2306,16 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>131.20983179776599</v>
+        <v>469.69097897592599</v>
       </c>
       <c r="C17">
-        <v>74.101814818104799</v>
+        <v>290.62997153830298</v>
       </c>
       <c r="D17">
-        <v>30.2238737941741</v>
+        <v>176.56684078084501</v>
       </c>
       <c r="E17">
-        <v>-21.505870168985499</v>
+        <v>74.279290166515096</v>
       </c>
       <c r="F17">
         <v>40</v>
@@ -2325,64 +2341,68 @@
       </c>
       <c r="L17" s="6">
         <f t="shared" si="12"/>
-        <v>0.12032690213622745</v>
+        <v>0.10166803676988362</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="7"/>
-        <v>0.1127304756124661</v>
+        <v>0.10183296149685181</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="8"/>
-        <v>0.10659099984158324</v>
+        <v>9.9760714249269813E-2</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="8"/>
-        <v>0.10011813825609199</v>
+        <v>9.6012033429792518E-2</v>
       </c>
       <c r="P17">
         <v>40</v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="13"/>
-        <v>6.9602742622432645</v>
+        <v>7.9830241057601476</v>
       </c>
       <c r="R17" s="4">
         <f t="shared" si="9"/>
-        <v>7.342799097566477</v>
+        <v>7.9726463240281911</v>
       </c>
       <c r="S17" s="4">
         <f t="shared" si="10"/>
-        <v>7.6846280127909941</v>
+        <v>8.1050697924718325</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="10"/>
+        <v>8.3563656415584902</v>
       </c>
       <c r="U17">
         <v>40</v>
       </c>
       <c r="V17" s="5" cm="1">
         <f t="array" ref="V17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G17</f>
-        <v>32280.757096305679</v>
+        <v>24462.028025256805</v>
       </c>
       <c r="W17" s="5" cm="1">
         <f t="array" ref="W17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H17</f>
-        <v>31870.921003280426</v>
+        <v>26869.239202793775</v>
       </c>
       <c r="X17" s="5" cm="1">
         <f t="array" ref="X17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I17</f>
-        <v>31328.377403457111</v>
+        <v>27947.935036544521</v>
       </c>
       <c r="Z17">
         <v>40</v>
       </c>
       <c r="AA17" s="5" cm="1">
         <f t="array" ref="AA17">SUMPRODUCT(($B$35-B17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G17</f>
-        <v>99944.194741043204</v>
+        <v>81633.024239001665</v>
       </c>
       <c r="AB17" s="5" cm="1">
         <f t="array" ref="AB17">SUMPRODUCT(($B$35-C17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H17</f>
-        <v>101304.62717964711</v>
+        <v>89590.875825249197</v>
       </c>
       <c r="AC17" s="5" cm="1">
         <f t="array" ref="AC17">SUMPRODUCT(($B$35-D17) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I17</f>
-        <v>102122.23828901301</v>
+        <v>94205.368937181454</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -2390,16 +2410,16 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>143.79254956988899</v>
+        <v>513.86295855627895</v>
       </c>
       <c r="C18">
-        <v>87.397346496917606</v>
+        <v>324.69717491162601</v>
       </c>
       <c r="D18">
-        <v>43.905752088160099</v>
+        <v>204.844549359507</v>
       </c>
       <c r="E18">
-        <v>-1.6989439487786999</v>
+        <v>105.40150116780001</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -2425,64 +2445,68 @@
       </c>
       <c r="L18" s="6">
         <f t="shared" si="12"/>
-        <v>0.11963327639426205</v>
+        <v>9.9233044372741719E-2</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="7"/>
-        <v>0.11206133287214487</v>
+        <v>0.10011841390514981</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="8"/>
-        <v>0.10595242363863042</v>
+        <v>9.8440904835360193E-2</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="8"/>
-        <v>9.9269057719377524E-2</v>
+        <v>9.4677890851235666E-2</v>
       </c>
       <c r="P18">
         <v>50</v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="13"/>
-        <v>6.9935188773210575</v>
+        <v>8.1395080864041649</v>
       </c>
       <c r="R18" s="4">
         <f t="shared" si="9"/>
-        <v>7.3785492554743231</v>
+        <v>8.0818927809852337</v>
       </c>
       <c r="S18" s="4">
         <f t="shared" si="10"/>
-        <v>7.7220482606644589</v>
+        <v>8.1917700393907626</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="10"/>
+        <v>8.4496768141454641</v>
       </c>
       <c r="U18">
         <v>50</v>
       </c>
       <c r="V18" s="5" cm="1">
         <f t="array" ref="V18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G18</f>
-        <v>31990.10320890935</v>
+        <v>23441.679495508703</v>
       </c>
       <c r="W18" s="5" cm="1">
         <f t="array" ref="W18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H18</f>
-        <v>31563.801505137526</v>
+        <v>26082.305467769133</v>
       </c>
       <c r="X18" s="5" cm="1">
         <f t="array" ref="X18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I18</f>
-        <v>31012.333510154444</v>
+        <v>27294.735459640877</v>
       </c>
       <c r="Z18">
         <v>50</v>
       </c>
       <c r="AA18" s="5" cm="1">
         <f t="array" ref="AA18">SUMPRODUCT(($B$35-B18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G18</f>
-        <v>99263.494228104057</v>
+        <v>79243.406216693256</v>
       </c>
       <c r="AB18" s="5" cm="1">
         <f t="array" ref="AB18">SUMPRODUCT(($B$35-C18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H18</f>
-        <v>100585.36482333663</v>
+        <v>87747.906505695631</v>
       </c>
       <c r="AC18" s="5" cm="1">
         <f t="array" ref="AC18">SUMPRODUCT(($B$35-D18) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I18</f>
-        <v>101382.07533365206</v>
+        <v>92675.600004679029</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -2490,16 +2514,16 @@
         <v>60</v>
       </c>
       <c r="B19">
-        <v>165.85813155613801</v>
+        <v>600.23278889943504</v>
       </c>
       <c r="C19">
-        <v>106.89714153099401</v>
+        <v>388.58825928285398</v>
       </c>
       <c r="D19">
-        <v>64.772311939302497</v>
+        <v>259.903557203498</v>
       </c>
       <c r="E19">
-        <v>20.382388755864099</v>
+        <v>148.31655113575201</v>
       </c>
       <c r="F19">
         <v>60</v>
@@ -2525,64 +2549,68 @@
       </c>
       <c r="L19" s="6">
         <f t="shared" si="12"/>
-        <v>0.11841690518143724</v>
+        <v>9.4471883966845735E-2</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="7"/>
-        <v>0.11107993952887622</v>
+        <v>9.6902878316874913E-2</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="8"/>
-        <v>0.10497851579702307</v>
+        <v>9.587112812693703E-2</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="8"/>
-        <v>9.8322478244309772E-2</v>
+        <v>9.2838214504951166E-2</v>
       </c>
       <c r="P19">
         <v>60</v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="13"/>
-        <v>7.0526017816894129</v>
+        <v>8.46427481825447</v>
       </c>
       <c r="R19" s="4">
         <f t="shared" si="9"/>
-        <v>7.4316257464110445</v>
+        <v>8.2952195971728884</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="10"/>
-        <v>7.7798374523020604</v>
+        <v>8.3661213785897157</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="10"/>
+        <v>8.5818866943739334</v>
       </c>
       <c r="U19">
         <v>60</v>
       </c>
       <c r="V19" s="5" cm="1">
         <f t="array" ref="V19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G19</f>
-        <v>31480.400353126104</v>
+        <v>21446.583730218867</v>
       </c>
       <c r="W19" s="5" cm="1">
         <f t="array" ref="W19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H19</f>
-        <v>31113.366922344714</v>
+        <v>24606.456419989758</v>
       </c>
       <c r="X19" s="5" cm="1">
         <f t="array" ref="X19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I19</f>
-        <v>30530.327408836674</v>
+        <v>26022.902541199684</v>
       </c>
       <c r="Z19">
         <v>60</v>
       </c>
       <c r="AA19" s="5" cm="1">
         <f t="array" ref="AA19">SUMPRODUCT(($B$35-B19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G19</f>
-        <v>98069.789239375939</v>
+        <v>74570.966694342278</v>
       </c>
       <c r="AB19" s="5" cm="1">
         <f t="array" ref="AB19">SUMPRODUCT(($B$35-C19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H19</f>
-        <v>99530.463909059443</v>
+        <v>84291.523338611616</v>
       </c>
       <c r="AC19" s="5" cm="1">
         <f t="array" ref="AC19">SUMPRODUCT(($B$35-D19) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I19</f>
-        <v>100253.23510603307</v>
+        <v>89697.014967640309</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -2590,16 +2618,16 @@
         <v>70</v>
       </c>
       <c r="B20">
-        <v>202.42245482284801</v>
+        <v>735.80095355061303</v>
       </c>
       <c r="C20">
-        <v>136.02770716387801</v>
+        <v>505.51646174993101</v>
       </c>
       <c r="D20">
-        <v>91.965106424325597</v>
+        <v>353.551755671705</v>
       </c>
       <c r="E20">
-        <v>51.329318737709002</v>
+        <v>226.746509713237</v>
       </c>
       <c r="F20">
         <v>70</v>
@@ -2625,64 +2653,68 @@
       </c>
       <c r="L20" s="6">
         <f t="shared" si="12"/>
-        <v>0.11640128690924462</v>
+        <v>8.6998651991366666E-2</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="7"/>
-        <v>0.10961384498030258</v>
+        <v>9.101806981806633E-2</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="8"/>
-        <v>0.10370934272905656</v>
+        <v>9.1500272773144986E-2</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="8"/>
-        <v>9.699584958792376E-2</v>
+        <v>8.9476090034798547E-2</v>
       </c>
       <c r="P20">
         <v>70</v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="13"/>
-        <v>7.1527666679170467</v>
+        <v>9.031036422265716</v>
       </c>
       <c r="R20" s="4">
         <f t="shared" si="9"/>
-        <v>7.51237627037675</v>
+        <v>8.7169143540573053</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="10"/>
-        <v>7.8564798470062209</v>
+        <v>8.6807215861457454</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="10"/>
+        <v>8.8347476268220237</v>
       </c>
       <c r="U20">
         <v>70</v>
       </c>
       <c r="V20" s="5" cm="1">
         <f t="array" ref="V20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-G20</f>
-        <v>30635.784516551379</v>
+        <v>18315.033394539489</v>
       </c>
       <c r="W20" s="5" cm="1">
         <f t="array" ref="W20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-H20</f>
-        <v>30440.466814705796</v>
+        <v>21905.478999307546</v>
       </c>
       <c r="X20" s="5" cm="1">
         <f t="array" ref="X20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$15) - 1))-I20</f>
-        <v>29902.188753151961</v>
+        <v>23859.680459500334</v>
       </c>
       <c r="Z20">
         <v>70</v>
       </c>
       <c r="AA20" s="5" cm="1">
         <f t="array" ref="AA20">SUMPRODUCT(($B$35-B20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-G20</f>
-        <v>96091.730599447968</v>
+        <v>67236.993153210482</v>
       </c>
       <c r="AB20" s="5" cm="1">
         <f t="array" ref="AB20">SUMPRODUCT(($B$35-C20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-H20</f>
-        <v>97954.557071790623</v>
+        <v>77965.935430033293</v>
       </c>
       <c r="AC20" s="5" cm="1">
         <f t="array" ref="AC20">SUMPRODUCT(($B$35-D20) * (1 + $B$36) ^ (ROW($1:$25) - 1))-I20</f>
-        <v>98782.157911945978</v>
+        <v>84630.829912264773</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -3498,7 +3530,7 @@
         <v>10360</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +3539,7 @@
         <v>1.7289999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3516,29 +3548,23 @@
         <v>1728.9999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="3">
         <v>2314</v>
       </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <f>50*7</f>
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3626,7 +3652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:S21 Q23:S30">
+  <conditionalFormatting sqref="Q13:S21 Q23:S30 T13:T20">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
